--- a/biology/Zoologie/Cecidosidae/Cecidosidae.xlsx
+++ b/biology/Zoologie/Cecidosidae/Cecidosidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cecidosidae sont une famille de lépidoptères (papillons) monotrysiens primitifs. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle regroupe environ 6 genres et de 16[1] à 18 espèces[2] dont neuf espèces présentes au sud de l'Afrique, cinq espèces en Amérique du Sud (Parra, 1998) et l'espèce Xanadoses nielseni, décrite en Nouvelle-Zélande (Hoare et Dugdale, 2003). Les Cecidosidae sont présents uniquement dans l'hémisphère sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle regroupe environ 6 genres et de 16 à 18 espèces dont neuf espèces présentes au sud de l'Afrique, cinq espèces en Amérique du Sud (Parra, 1998) et l'espèce Xanadoses nielseni, décrite en Nouvelle-Zélande (Hoare et Dugdale, 2003). Les Cecidosidae sont présents uniquement dans l'hémisphère sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille Cecidosidae a été décrite par l'entomologiste argentin Juan Brèthes (en) en 1916[3]. Elle regroupe les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La famille Cecidosidae a été décrite par l'entomologiste argentin Juan Brèthes (en) en 1916. Elle regroupe les genres suivants :
 Cecidonius Moreira &amp; Gonçalves, 2017
 Cecidoses Curtis, 1835
 Dicranoses Kieffer, 1910
